--- a/resources/corpora/minimal-stress-pairs.xlsx
+++ b/resources/corpora/minimal-stress-pairs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYOD-ADMIN\Documents\git\hrbosker.github.io\content\resources\corpora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31981EAA-81A9-4AEC-986D-708417DD53A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB742F31-B917-402D-BC7D-198153F706DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="1804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="1808">
   <si>
     <t>Word 1</t>
   </si>
@@ -5989,6 +5989,18 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>achterwegen</t>
+  </si>
+  <si>
+    <t>back roads</t>
+  </si>
+  <si>
+    <t>achterwege</t>
+  </si>
+  <si>
+    <t>omitted/left out (adv.)</t>
   </si>
 </sst>
 </file>
@@ -6803,9 +6815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BD612E-4F01-4431-B7ED-538D524FB554}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9004,25 +9018,25 @@
         <v>4</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>1548</v>
+        <v>1804</v>
       </c>
       <c r="C87" s="44">
         <v>1</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>1560</v>
+        <v>1805</v>
       </c>
       <c r="E87" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>1548</v>
+        <v>1806</v>
       </c>
       <c r="G87" s="44">
         <v>3</v>
       </c>
       <c r="H87" s="44" t="s">
-        <v>1561</v>
+        <v>1807</v>
       </c>
       <c r="I87" s="91"/>
     </row>
@@ -9031,25 +9045,25 @@
         <v>4</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>1769</v>
+        <v>1548</v>
       </c>
       <c r="C88" s="44">
         <v>1</v>
       </c>
       <c r="D88" s="44" t="s">
-        <v>1776</v>
+        <v>1560</v>
       </c>
       <c r="E88" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>1769</v>
+        <v>1548</v>
       </c>
       <c r="G88" s="44">
         <v>3</v>
       </c>
       <c r="H88" s="44" t="s">
-        <v>1775</v>
+        <v>1561</v>
       </c>
       <c r="I88" s="91"/>
     </row>
@@ -9058,57 +9072,55 @@
         <v>4</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>1616</v>
+        <v>1769</v>
       </c>
       <c r="C89" s="44">
         <v>1</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>1687</v>
+        <v>1776</v>
       </c>
       <c r="E89" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>1616</v>
+        <v>1769</v>
       </c>
       <c r="G89" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89" s="44" t="s">
-        <v>1689</v>
-      </c>
-      <c r="I89" s="91" t="s">
-        <v>1700</v>
-      </c>
+        <v>1775</v>
+      </c>
+      <c r="I89" s="91"/>
     </row>
     <row r="90" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="42">
         <v>4</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>582</v>
+        <v>1616</v>
       </c>
       <c r="C90" s="44">
         <v>1</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>616</v>
+        <v>1687</v>
       </c>
       <c r="E90" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F90" s="43" t="s">
-        <v>582</v>
+        <v>1616</v>
       </c>
       <c r="G90" s="44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H90" s="44" t="s">
-        <v>635</v>
+        <v>1689</v>
       </c>
       <c r="I90" s="91" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9116,25 +9128,25 @@
         <v>4</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>1634</v>
+        <v>582</v>
       </c>
       <c r="C91" s="44">
         <v>1</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>1697</v>
+        <v>616</v>
       </c>
       <c r="E91" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>1634</v>
+        <v>582</v>
       </c>
       <c r="G91" s="44">
         <v>3</v>
       </c>
       <c r="H91" s="44" t="s">
-        <v>1698</v>
+        <v>635</v>
       </c>
       <c r="I91" s="91" t="s">
         <v>1701</v>
@@ -9145,28 +9157,28 @@
         <v>4</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>1615</v>
+        <v>1634</v>
       </c>
       <c r="C92" s="44">
         <v>1</v>
       </c>
       <c r="D92" s="44" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
       <c r="E92" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>1615</v>
+        <v>1634</v>
       </c>
       <c r="G92" s="44">
         <v>3</v>
       </c>
       <c r="H92" s="44" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I92" s="91" t="s">
-        <v>1628</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9174,28 +9186,28 @@
         <v>4</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="C93" s="44">
         <v>1</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="E93" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>1683</v>
+        <v>1615</v>
       </c>
       <c r="G93" s="44">
         <v>3</v>
       </c>
       <c r="H93" s="44" t="s">
-        <v>1685</v>
+        <v>1699</v>
       </c>
       <c r="I93" s="91" t="s">
-        <v>1702</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9203,28 +9215,28 @@
         <v>4</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>1545</v>
+        <v>1620</v>
       </c>
       <c r="C94" s="44">
         <v>1</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>1567</v>
+        <v>1682</v>
       </c>
       <c r="E94" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>1545</v>
+        <v>1683</v>
       </c>
       <c r="G94" s="44">
         <v>3</v>
       </c>
       <c r="H94" s="44" t="s">
-        <v>1568</v>
+        <v>1685</v>
       </c>
       <c r="I94" s="91" t="s">
-        <v>1672</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9232,25 +9244,25 @@
         <v>4</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>1640</v>
+        <v>1545</v>
       </c>
       <c r="C95" s="44">
         <v>1</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>1691</v>
+        <v>1567</v>
       </c>
       <c r="E95" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>1640</v>
+        <v>1545</v>
       </c>
       <c r="G95" s="44">
         <v>3</v>
       </c>
       <c r="H95" s="44" t="s">
-        <v>1692</v>
+        <v>1568</v>
       </c>
       <c r="I95" s="91" t="s">
         <v>1672</v>
@@ -9261,28 +9273,28 @@
         <v>4</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>1547</v>
+        <v>1640</v>
       </c>
       <c r="C96" s="44">
         <v>1</v>
       </c>
       <c r="D96" s="44" t="s">
-        <v>1562</v>
+        <v>1691</v>
       </c>
       <c r="E96" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F96" s="43" t="s">
-        <v>1547</v>
+        <v>1640</v>
       </c>
       <c r="G96" s="44">
         <v>3</v>
       </c>
       <c r="H96" s="44" t="s">
-        <v>1563</v>
+        <v>1692</v>
       </c>
       <c r="I96" s="91" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9290,25 +9302,25 @@
         <v>4</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>1637</v>
+        <v>1547</v>
       </c>
       <c r="C97" s="44">
         <v>1</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>1695</v>
+        <v>1562</v>
       </c>
       <c r="E97" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>1637</v>
+        <v>1547</v>
       </c>
       <c r="G97" s="44">
         <v>3</v>
       </c>
       <c r="H97" s="44" t="s">
-        <v>1696</v>
+        <v>1563</v>
       </c>
       <c r="I97" s="91" t="s">
         <v>1673</v>
@@ -9319,28 +9331,28 @@
         <v>4</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>1621</v>
+        <v>1637</v>
       </c>
       <c r="C98" s="44">
         <v>1</v>
       </c>
       <c r="D98" s="44" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="E98" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F98" s="43" t="s">
-        <v>1621</v>
+        <v>1637</v>
       </c>
       <c r="G98" s="44">
         <v>3</v>
       </c>
       <c r="H98" s="44" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="I98" s="91" t="s">
-        <v>1703</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9348,28 +9360,28 @@
         <v>4</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>1595</v>
+        <v>1621</v>
       </c>
       <c r="C99" s="44">
         <v>1</v>
       </c>
       <c r="D99" s="44" t="s">
-        <v>1596</v>
+        <v>1693</v>
       </c>
       <c r="E99" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>1598</v>
+        <v>1621</v>
       </c>
       <c r="G99" s="44">
         <v>3</v>
       </c>
       <c r="H99" s="44" t="s">
-        <v>1599</v>
+        <v>1694</v>
       </c>
       <c r="I99" s="91" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9377,32 +9389,61 @@
         <v>4</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>604</v>
+        <v>1595</v>
       </c>
       <c r="C100" s="44">
         <v>1</v>
       </c>
       <c r="D100" s="44" t="s">
-        <v>639</v>
+        <v>1596</v>
       </c>
       <c r="E100" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F100" s="43" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G100" s="44">
+        <v>3</v>
+      </c>
+      <c r="H100" s="44" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I100" s="91" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="42">
+        <v>4</v>
+      </c>
+      <c r="B101" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="G100" s="44">
-        <v>3</v>
-      </c>
-      <c r="H100" s="44" t="s">
+      <c r="C101" s="44">
+        <v>1</v>
+      </c>
+      <c r="D101" s="44" t="s">
+        <v>639</v>
+      </c>
+      <c r="E101" s="45" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F101" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="G101" s="44">
+        <v>3</v>
+      </c>
+      <c r="H101" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="I100" s="91" t="s">
+      <c r="I101" s="91" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B101" s="33"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources/corpora/minimal-stress-pairs.xlsx
+++ b/resources/corpora/minimal-stress-pairs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYOD-ADMIN\Documents\git\hrbosker.github.io\content\resources\corpora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB742F31-B917-402D-BC7D-198153F706DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6788C12-C553-4347-BB76-D7D03EBE01F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="1808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="1811">
   <si>
     <t>Word 1</t>
   </si>
@@ -6001,6 +6001,15 @@
   </si>
   <si>
     <t>omitted/left out (adv.)</t>
+  </si>
+  <si>
+    <t>misdadiger</t>
+  </si>
+  <si>
+    <t>criminal (noun)</t>
+  </si>
+  <si>
+    <t>more felonious</t>
   </si>
 </sst>
 </file>
@@ -6815,11 +6824,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BD612E-4F01-4431-B7ED-538D524FB554}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9018,25 +9025,25 @@
         <v>4</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="C87" s="44">
         <v>1</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="E87" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="G87" s="44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" s="44" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="I87" s="91"/>
     </row>
@@ -9045,25 +9052,25 @@
         <v>4</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>1548</v>
+        <v>1804</v>
       </c>
       <c r="C88" s="44">
         <v>1</v>
       </c>
       <c r="D88" s="44" t="s">
-        <v>1560</v>
+        <v>1805</v>
       </c>
       <c r="E88" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>1548</v>
+        <v>1806</v>
       </c>
       <c r="G88" s="44">
         <v>3</v>
       </c>
       <c r="H88" s="44" t="s">
-        <v>1561</v>
+        <v>1807</v>
       </c>
       <c r="I88" s="91"/>
     </row>
@@ -9072,25 +9079,25 @@
         <v>4</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>1769</v>
+        <v>1548</v>
       </c>
       <c r="C89" s="44">
         <v>1</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>1776</v>
+        <v>1560</v>
       </c>
       <c r="E89" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>1769</v>
+        <v>1548</v>
       </c>
       <c r="G89" s="44">
         <v>3</v>
       </c>
       <c r="H89" s="44" t="s">
-        <v>1775</v>
+        <v>1561</v>
       </c>
       <c r="I89" s="91"/>
     </row>
@@ -9099,57 +9106,55 @@
         <v>4</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>1616</v>
+        <v>1769</v>
       </c>
       <c r="C90" s="44">
         <v>1</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>1687</v>
+        <v>1776</v>
       </c>
       <c r="E90" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F90" s="43" t="s">
-        <v>1616</v>
+        <v>1769</v>
       </c>
       <c r="G90" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90" s="44" t="s">
-        <v>1689</v>
-      </c>
-      <c r="I90" s="91" t="s">
-        <v>1700</v>
-      </c>
+        <v>1775</v>
+      </c>
+      <c r="I90" s="91"/>
     </row>
     <row r="91" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="42">
         <v>4</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>582</v>
+        <v>1616</v>
       </c>
       <c r="C91" s="44">
         <v>1</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>616</v>
+        <v>1687</v>
       </c>
       <c r="E91" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>582</v>
+        <v>1616</v>
       </c>
       <c r="G91" s="44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H91" s="44" t="s">
-        <v>635</v>
+        <v>1689</v>
       </c>
       <c r="I91" s="91" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9157,25 +9162,25 @@
         <v>4</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>1634</v>
+        <v>582</v>
       </c>
       <c r="C92" s="44">
         <v>1</v>
       </c>
       <c r="D92" s="44" t="s">
-        <v>1697</v>
+        <v>616</v>
       </c>
       <c r="E92" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>1634</v>
+        <v>582</v>
       </c>
       <c r="G92" s="44">
         <v>3</v>
       </c>
       <c r="H92" s="44" t="s">
-        <v>1698</v>
+        <v>635</v>
       </c>
       <c r="I92" s="91" t="s">
         <v>1701</v>
@@ -9186,28 +9191,28 @@
         <v>4</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>1615</v>
+        <v>1634</v>
       </c>
       <c r="C93" s="44">
         <v>1</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
       <c r="E93" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>1615</v>
+        <v>1634</v>
       </c>
       <c r="G93" s="44">
         <v>3</v>
       </c>
       <c r="H93" s="44" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I93" s="91" t="s">
-        <v>1628</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9215,28 +9220,28 @@
         <v>4</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="C94" s="44">
         <v>1</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="E94" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>1683</v>
+        <v>1615</v>
       </c>
       <c r="G94" s="44">
         <v>3</v>
       </c>
       <c r="H94" s="44" t="s">
-        <v>1685</v>
+        <v>1699</v>
       </c>
       <c r="I94" s="91" t="s">
-        <v>1702</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9244,28 +9249,28 @@
         <v>4</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>1545</v>
+        <v>1620</v>
       </c>
       <c r="C95" s="44">
         <v>1</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>1567</v>
+        <v>1682</v>
       </c>
       <c r="E95" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>1545</v>
+        <v>1683</v>
       </c>
       <c r="G95" s="44">
         <v>3</v>
       </c>
       <c r="H95" s="44" t="s">
-        <v>1568</v>
+        <v>1685</v>
       </c>
       <c r="I95" s="91" t="s">
-        <v>1672</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9273,25 +9278,25 @@
         <v>4</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>1640</v>
+        <v>1545</v>
       </c>
       <c r="C96" s="44">
         <v>1</v>
       </c>
       <c r="D96" s="44" t="s">
-        <v>1691</v>
+        <v>1567</v>
       </c>
       <c r="E96" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F96" s="43" t="s">
-        <v>1640</v>
+        <v>1545</v>
       </c>
       <c r="G96" s="44">
         <v>3</v>
       </c>
       <c r="H96" s="44" t="s">
-        <v>1692</v>
+        <v>1568</v>
       </c>
       <c r="I96" s="91" t="s">
         <v>1672</v>
@@ -9302,28 +9307,28 @@
         <v>4</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>1547</v>
+        <v>1640</v>
       </c>
       <c r="C97" s="44">
         <v>1</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>1562</v>
+        <v>1691</v>
       </c>
       <c r="E97" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>1547</v>
+        <v>1640</v>
       </c>
       <c r="G97" s="44">
         <v>3</v>
       </c>
       <c r="H97" s="44" t="s">
-        <v>1563</v>
+        <v>1692</v>
       </c>
       <c r="I97" s="91" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9331,25 +9336,25 @@
         <v>4</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>1637</v>
+        <v>1547</v>
       </c>
       <c r="C98" s="44">
         <v>1</v>
       </c>
       <c r="D98" s="44" t="s">
-        <v>1695</v>
+        <v>1562</v>
       </c>
       <c r="E98" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F98" s="43" t="s">
-        <v>1637</v>
+        <v>1547</v>
       </c>
       <c r="G98" s="44">
         <v>3</v>
       </c>
       <c r="H98" s="44" t="s">
-        <v>1696</v>
+        <v>1563</v>
       </c>
       <c r="I98" s="91" t="s">
         <v>1673</v>
@@ -9360,28 +9365,28 @@
         <v>4</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>1621</v>
+        <v>1637</v>
       </c>
       <c r="C99" s="44">
         <v>1</v>
       </c>
       <c r="D99" s="44" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="E99" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>1621</v>
+        <v>1637</v>
       </c>
       <c r="G99" s="44">
         <v>3</v>
       </c>
       <c r="H99" s="44" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="I99" s="91" t="s">
-        <v>1703</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9389,28 +9394,28 @@
         <v>4</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>1595</v>
+        <v>1621</v>
       </c>
       <c r="C100" s="44">
         <v>1</v>
       </c>
       <c r="D100" s="44" t="s">
-        <v>1596</v>
+        <v>1693</v>
       </c>
       <c r="E100" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>1598</v>
+        <v>1621</v>
       </c>
       <c r="G100" s="44">
         <v>3</v>
       </c>
       <c r="H100" s="44" t="s">
-        <v>1599</v>
+        <v>1694</v>
       </c>
       <c r="I100" s="91" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9418,32 +9423,61 @@
         <v>4</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>604</v>
+        <v>1595</v>
       </c>
       <c r="C101" s="44">
         <v>1</v>
       </c>
       <c r="D101" s="44" t="s">
-        <v>639</v>
+        <v>1596</v>
       </c>
       <c r="E101" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F101" s="43" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G101" s="44">
+        <v>3</v>
+      </c>
+      <c r="H101" s="44" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I101" s="91" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="42">
+        <v>4</v>
+      </c>
+      <c r="B102" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="G101" s="44">
-        <v>3</v>
-      </c>
-      <c r="H101" s="44" t="s">
+      <c r="C102" s="44">
+        <v>1</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>639</v>
+      </c>
+      <c r="E102" s="45" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F102" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="G102" s="44">
+        <v>3</v>
+      </c>
+      <c r="H102" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="I101" s="91" t="s">
+      <c r="I102" s="91" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B102" s="33"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources/corpora/minimal-stress-pairs.xlsx
+++ b/resources/corpora/minimal-stress-pairs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYOD-ADMIN\Documents\git\hrbosker.github.io\content\resources\corpora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91AF15A-F274-487C-8B11-7ECD0C903978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B4818B-6684-40F1-ADBF-9AC7BC606D44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="English" sheetId="4" r:id="rId2"/>
     <sheet name="German" sheetId="5" r:id="rId3"/>
     <sheet name="Italian" sheetId="1" r:id="rId4"/>
-    <sheet name="Romanian" sheetId="6" r:id="rId5"/>
+    <sheet name="Romanian" sheetId="7" r:id="rId5"/>
     <sheet name="Spanish" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="2315">
   <si>
     <t>Word 1</t>
   </si>
@@ -6013,9 +6013,6 @@
     <t>more felonious</t>
   </si>
   <si>
-    <t>created with the help of Silvia Dragan, native speaker of Romanian</t>
-  </si>
-  <si>
     <t>Afin</t>
   </si>
   <si>
@@ -6172,9 +6169,6 @@
     <t>Voia</t>
   </si>
   <si>
-    <t>Sb's willingness</t>
-  </si>
-  <si>
     <t>Zori</t>
   </si>
   <si>
@@ -6268,9 +6262,6 @@
     <t>Modele</t>
   </si>
   <si>
-    <t>The trends, or the preferences of sb.</t>
-  </si>
-  <si>
     <t>Paria</t>
   </si>
   <si>
@@ -6346,9 +6337,6 @@
     <t>Slice of meat or fish</t>
   </si>
   <si>
-    <t>Yeast</t>
-  </si>
-  <si>
     <t>To follow, or to stalk somebody</t>
   </si>
   <si>
@@ -6482,6 +6470,1059 @@
   </si>
   <si>
     <t>See Rohrer et al. (2024, Proceedings of Speech Prosody) and Rohrer et al. (2025, Psych Bulletin Review)</t>
+  </si>
+  <si>
+    <t>echtgenote</t>
+  </si>
+  <si>
+    <t>spouse (fem.)</t>
+  </si>
+  <si>
+    <t>echt genoten</t>
+  </si>
+  <si>
+    <t>really enjoyed (paraphrase)</t>
+  </si>
+  <si>
+    <t>created by Silvia Dragan, native speaker of Romanian</t>
+  </si>
+  <si>
+    <t>Phonetic transcription Word 1</t>
+  </si>
+  <si>
+    <t>Stressed syllable 1</t>
+  </si>
+  <si>
+    <t>Spelling (Syllabes) Word 1</t>
+  </si>
+  <si>
+    <t>Phonetic transcription Word 2</t>
+  </si>
+  <si>
+    <t>Stressed syllable 2</t>
+  </si>
+  <si>
+    <t>Spelling (Syllabes) Word 2</t>
+  </si>
+  <si>
+    <t>/ˈa.fin/</t>
+  </si>
+  <si>
+    <t>a-fin</t>
+  </si>
+  <si>
+    <t>/aˈfin/</t>
+  </si>
+  <si>
+    <t>/ˈar.ma/</t>
+  </si>
+  <si>
+    <t>ar-ma</t>
+  </si>
+  <si>
+    <t>/arˈma/</t>
+  </si>
+  <si>
+    <t>/ˈfu.d͡ʒi/</t>
+  </si>
+  <si>
+    <t>fu-gi</t>
+  </si>
+  <si>
+    <t>/fuˈd͡ʒi/</t>
+  </si>
+  <si>
+    <t>/ˈku.ra/</t>
+  </si>
+  <si>
+    <t>cu-ra</t>
+  </si>
+  <si>
+    <t>/kuˈra/</t>
+  </si>
+  <si>
+    <t>/ˈo.kʲi/</t>
+  </si>
+  <si>
+    <t>o-chi</t>
+  </si>
+  <si>
+    <t>/oˈkʲi/</t>
+  </si>
+  <si>
+    <t>/ˈplan.ta/</t>
+  </si>
+  <si>
+    <t>plan-ta</t>
+  </si>
+  <si>
+    <t>/planˈta/</t>
+  </si>
+  <si>
+    <t>/ˈfi.le/</t>
+  </si>
+  <si>
+    <t>fi-le</t>
+  </si>
+  <si>
+    <t>/fiˈle/</t>
+  </si>
+  <si>
+    <t>/ˈma.ja/</t>
+  </si>
+  <si>
+    <t>ma-ia (or ma-ya)</t>
+  </si>
+  <si>
+    <t>/maˈja/</t>
+  </si>
+  <si>
+    <t>Yeast for baking</t>
+  </si>
+  <si>
+    <t>/ˈfi.la/</t>
+  </si>
+  <si>
+    <t>fi-la</t>
+  </si>
+  <si>
+    <t>/fiˈla/</t>
+  </si>
+  <si>
+    <t>/ˈno.dul/</t>
+  </si>
+  <si>
+    <t>no-dul</t>
+  </si>
+  <si>
+    <t>/noˈdul/</t>
+  </si>
+  <si>
+    <t>/ˈka.sa/</t>
+  </si>
+  <si>
+    <t>ca-sa</t>
+  </si>
+  <si>
+    <t>/kaˈsa/</t>
+  </si>
+  <si>
+    <t>/ˈt͡ʃif.ra/</t>
+  </si>
+  <si>
+    <t>ci-fra</t>
+  </si>
+  <si>
+    <t>/t͡ʃiˈfra/</t>
+  </si>
+  <si>
+    <t>/ˈdu.t͡ʃe/</t>
+  </si>
+  <si>
+    <t>du-ce</t>
+  </si>
+  <si>
+    <t>/duˈt͡ʃe/</t>
+  </si>
+  <si>
+    <t>/ˈfor.mə/</t>
+  </si>
+  <si>
+    <t>for-mӑ</t>
+  </si>
+  <si>
+    <t>/forˈmə/</t>
+  </si>
+  <si>
+    <t>/ˈko.pi.i/</t>
+  </si>
+  <si>
+    <t>co-pii</t>
+  </si>
+  <si>
+    <t>/koˈpi.i/</t>
+  </si>
+  <si>
+    <t>/ˈsə.li/</t>
+  </si>
+  <si>
+    <t>sӑ-li</t>
+  </si>
+  <si>
+    <t>/səˈli/</t>
+  </si>
+  <si>
+    <t>/ˈba.rem/</t>
+  </si>
+  <si>
+    <t>ba-rem</t>
+  </si>
+  <si>
+    <t>/baˈrem/</t>
+  </si>
+  <si>
+    <t>/ˈba.ra/</t>
+  </si>
+  <si>
+    <t>ba-ra</t>
+  </si>
+  <si>
+    <t>/baˈra/</t>
+  </si>
+  <si>
+    <t>/ˈlis.tə/</t>
+  </si>
+  <si>
+    <t>lis-tӑ</t>
+  </si>
+  <si>
+    <t>/lisˈtə/</t>
+  </si>
+  <si>
+    <t>/ˈpa.ra/</t>
+  </si>
+  <si>
+    <t>pa-ra</t>
+  </si>
+  <si>
+    <t>/paˈra/</t>
+  </si>
+  <si>
+    <t>/ˈpro.ba/</t>
+  </si>
+  <si>
+    <t>pro-ba</t>
+  </si>
+  <si>
+    <t>/proˈba/</t>
+  </si>
+  <si>
+    <t>/ˈtor.turʲ/</t>
+  </si>
+  <si>
+    <t>tor-turi</t>
+  </si>
+  <si>
+    <t>/torˈturʲ/</t>
+  </si>
+  <si>
+    <t>/ˈro.man/</t>
+  </si>
+  <si>
+    <t>ro-man</t>
+  </si>
+  <si>
+    <t>/roˈman/</t>
+  </si>
+  <si>
+    <t>/ˈbor.durʲ/</t>
+  </si>
+  <si>
+    <t>bor-duri</t>
+  </si>
+  <si>
+    <t>/borˈdurʲ/</t>
+  </si>
+  <si>
+    <t>/ˈra.tə/</t>
+  </si>
+  <si>
+    <t>ra-tӑ</t>
+  </si>
+  <si>
+    <t>/raˈtə/</t>
+  </si>
+  <si>
+    <t>/ˈzə.ri/</t>
+  </si>
+  <si>
+    <t>zӑ-ri</t>
+  </si>
+  <si>
+    <t>/zəˈri/</t>
+  </si>
+  <si>
+    <t>/ˈvo.ja/</t>
+  </si>
+  <si>
+    <t>vo-ia</t>
+  </si>
+  <si>
+    <t>Somebody's willingness</t>
+  </si>
+  <si>
+    <t>/voˈja/</t>
+  </si>
+  <si>
+    <t>/ˈzo.ri/</t>
+  </si>
+  <si>
+    <t>zo-ri</t>
+  </si>
+  <si>
+    <t>/zoˈri/</t>
+  </si>
+  <si>
+    <t>/ˈmə.ri/</t>
+  </si>
+  <si>
+    <t>mӑ-ri</t>
+  </si>
+  <si>
+    <t>/məˈri/</t>
+  </si>
+  <si>
+    <t>/ˈma.sa/</t>
+  </si>
+  <si>
+    <t>ma-sa</t>
+  </si>
+  <si>
+    <t>/maˈsa/</t>
+  </si>
+  <si>
+    <t>/ˈmar.kə/</t>
+  </si>
+  <si>
+    <t>mar-cӑ</t>
+  </si>
+  <si>
+    <t>/marˈkə/</t>
+  </si>
+  <si>
+    <t>/ˈmas.kə/</t>
+  </si>
+  <si>
+    <t>mas-cӑ</t>
+  </si>
+  <si>
+    <t>/masˈkə/</t>
+  </si>
+  <si>
+    <t>/ˈpal.ma/</t>
+  </si>
+  <si>
+    <t>pal-ma</t>
+  </si>
+  <si>
+    <t>/palˈma/</t>
+  </si>
+  <si>
+    <t>/ˈve.nit/</t>
+  </si>
+  <si>
+    <t>ve-nit</t>
+  </si>
+  <si>
+    <t>/veˈnit/</t>
+  </si>
+  <si>
+    <t>Dresuri</t>
+  </si>
+  <si>
+    <t>/ˈdre.surʲ/</t>
+  </si>
+  <si>
+    <t>dre-suri</t>
+  </si>
+  <si>
+    <t>Thermals</t>
+  </si>
+  <si>
+    <t>/dreˈsurʲ/</t>
+  </si>
+  <si>
+    <t>Methods of taining animals</t>
+  </si>
+  <si>
+    <t>Contra</t>
+  </si>
+  <si>
+    <t>/ˈkon.tra/</t>
+  </si>
+  <si>
+    <t>con-tra</t>
+  </si>
+  <si>
+    <t>Against somebody or something</t>
+  </si>
+  <si>
+    <t>/konˈtra/</t>
+  </si>
+  <si>
+    <t>To contradict, to oppose someone</t>
+  </si>
+  <si>
+    <t>/ˈaw.ɡust/</t>
+  </si>
+  <si>
+    <t>au-gust</t>
+  </si>
+  <si>
+    <t>The month of August</t>
+  </si>
+  <si>
+    <t>/awˈɡust/</t>
+  </si>
+  <si>
+    <t>Majestic</t>
+  </si>
+  <si>
+    <t>Coda</t>
+  </si>
+  <si>
+    <t>/ˈko.da/</t>
+  </si>
+  <si>
+    <t>co-da</t>
+  </si>
+  <si>
+    <t>The ending notes of a song</t>
+  </si>
+  <si>
+    <t>/koˈda/</t>
+  </si>
+  <si>
+    <t>To code</t>
+  </si>
+  <si>
+    <t>Comis</t>
+  </si>
+  <si>
+    <t>/ˈko.mis/</t>
+  </si>
+  <si>
+    <t>co-mis</t>
+  </si>
+  <si>
+    <t>Person who took care of horses and stables of emperors in the Middle-ages</t>
+  </si>
+  <si>
+    <t>/koˈmis/</t>
+  </si>
+  <si>
+    <t>Seizure of property and goods</t>
+  </si>
+  <si>
+    <t>Iaca</t>
+  </si>
+  <si>
+    <t>/ˈja.ka/</t>
+  </si>
+  <si>
+    <t>ia-ca</t>
+  </si>
+  <si>
+    <t>Look! Watch out!</t>
+  </si>
+  <si>
+    <t>/jaˈka/</t>
+  </si>
+  <si>
+    <t>Collar for women clothing</t>
+  </si>
+  <si>
+    <t>Mister</t>
+  </si>
+  <si>
+    <t>/ˈmis.ter/</t>
+  </si>
+  <si>
+    <t>mis-ter</t>
+  </si>
+  <si>
+    <t>A noble man</t>
+  </si>
+  <si>
+    <t>/misˈter/</t>
+  </si>
+  <si>
+    <t>Mystery</t>
+  </si>
+  <si>
+    <t>Dura</t>
+  </si>
+  <si>
+    <t>/ˈdu.ra/</t>
+  </si>
+  <si>
+    <t>du-ra</t>
+  </si>
+  <si>
+    <t>The noise made by an object rolling</t>
+  </si>
+  <si>
+    <t>/duˈra/</t>
+  </si>
+  <si>
+    <t>To last</t>
+  </si>
+  <si>
+    <t>Ladin</t>
+  </si>
+  <si>
+    <t>/ˈla.din/</t>
+  </si>
+  <si>
+    <t>la-din</t>
+  </si>
+  <si>
+    <t>Resin</t>
+  </si>
+  <si>
+    <t>/laˈdin/</t>
+  </si>
+  <si>
+    <t>Person belonging from a part of Switzerland and north of Italy (Rhaeto-roman)</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>/ˈvi.a/</t>
+  </si>
+  <si>
+    <t>vi-a</t>
+  </si>
+  <si>
+    <t>Through a route, used for a direction or road</t>
+  </si>
+  <si>
+    <t>/viˈa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To live, to be alive, to give life </t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>/ˈko.la/</t>
+  </si>
+  <si>
+    <t>co-la</t>
+  </si>
+  <si>
+    <t>Coca-cola</t>
+  </si>
+  <si>
+    <t>/koˈla/</t>
+  </si>
+  <si>
+    <t>To glue or stick together</t>
+  </si>
+  <si>
+    <t>Boxer</t>
+  </si>
+  <si>
+    <t>/ˈbok.ser/</t>
+  </si>
+  <si>
+    <t>box-er</t>
+  </si>
+  <si>
+    <t>Boxing athelete</t>
+  </si>
+  <si>
+    <t>/bokˈser/</t>
+  </si>
+  <si>
+    <t>Breed of dogs</t>
+  </si>
+  <si>
+    <t>/ˈve.se.lə/</t>
+  </si>
+  <si>
+    <t>ve-se-lӑ</t>
+  </si>
+  <si>
+    <t>/veˈse.lə/</t>
+  </si>
+  <si>
+    <t>/ˈdu.du.je/</t>
+  </si>
+  <si>
+    <t>du-du-ie</t>
+  </si>
+  <si>
+    <t>/duˈdu.je/</t>
+  </si>
+  <si>
+    <t>/iˈmo.bil/</t>
+  </si>
+  <si>
+    <t>i-mo-bil</t>
+  </si>
+  <si>
+    <t>/i.moˈbil/</t>
+  </si>
+  <si>
+    <t>/ˈmo.bi.lə/</t>
+  </si>
+  <si>
+    <t>mo-bi-lӑ</t>
+  </si>
+  <si>
+    <t>/moˈbi.lə/</t>
+  </si>
+  <si>
+    <t>/ˈum.bre.le/</t>
+  </si>
+  <si>
+    <t>um-bre-le</t>
+  </si>
+  <si>
+    <t>/umˈbre.le/</t>
+  </si>
+  <si>
+    <t>/reˈzer.və/</t>
+  </si>
+  <si>
+    <t>re-zer-vӑ</t>
+  </si>
+  <si>
+    <t>/re.zerˈvə/</t>
+  </si>
+  <si>
+    <t>/ˈa.t͡ʃe.le/</t>
+  </si>
+  <si>
+    <t>a-ce-le</t>
+  </si>
+  <si>
+    <t>/aˈt͡ʃe.le/</t>
+  </si>
+  <si>
+    <t>/ˈa.pe.le/</t>
+  </si>
+  <si>
+    <t>a-pe-le</t>
+  </si>
+  <si>
+    <t>/aˈpe.le/</t>
+  </si>
+  <si>
+    <t>/ˈmo.de.le/</t>
+  </si>
+  <si>
+    <t>mo-de-le</t>
+  </si>
+  <si>
+    <t>The trends, or the preferences of somebody</t>
+  </si>
+  <si>
+    <t>/moˈde.le/</t>
+  </si>
+  <si>
+    <t>/ˈpa.ri.a/</t>
+  </si>
+  <si>
+    <t>pa-ri-a</t>
+  </si>
+  <si>
+    <t>/paˈri.a/</t>
+  </si>
+  <si>
+    <t>/luˈmi.na/</t>
+  </si>
+  <si>
+    <t>lu-mi-na</t>
+  </si>
+  <si>
+    <t>/lu.miˈna/</t>
+  </si>
+  <si>
+    <t>/ˈku.re.le/</t>
+  </si>
+  <si>
+    <t>cu-re-le</t>
+  </si>
+  <si>
+    <t>/kuˈre.le/</t>
+  </si>
+  <si>
+    <t>/ˈre.pe.zi/</t>
+  </si>
+  <si>
+    <t>re-pe-zi</t>
+  </si>
+  <si>
+    <t>/re.peˈzi/</t>
+  </si>
+  <si>
+    <t>/reˈkla.ma/</t>
+  </si>
+  <si>
+    <t>re-cla-ma</t>
+  </si>
+  <si>
+    <t>/re.klaˈma/</t>
+  </si>
+  <si>
+    <t>/suˈfra.ʒju/</t>
+  </si>
+  <si>
+    <t>su-fra-giu</t>
+  </si>
+  <si>
+    <t>/su.fraˈʒju/</t>
+  </si>
+  <si>
+    <t>Afinӑ</t>
+  </si>
+  <si>
+    <t>/ˈa.fi.nə/</t>
+  </si>
+  <si>
+    <t>a-fi-nӑ</t>
+  </si>
+  <si>
+    <t>A blueberry</t>
+  </si>
+  <si>
+    <t>/aˈfi.nə/</t>
+  </si>
+  <si>
+    <t>A relative (f.)</t>
+  </si>
+  <si>
+    <t>Folie</t>
+  </si>
+  <si>
+    <t>/ˈfo.li.e/</t>
+  </si>
+  <si>
+    <t>fo-li-e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thin plastic or metal sheet </t>
+  </si>
+  <si>
+    <t>/foˈli.e/</t>
+  </si>
+  <si>
+    <t>A pleasant thing that produces happiness or satisfaction</t>
+  </si>
+  <si>
+    <t>Godie</t>
+  </si>
+  <si>
+    <t>/ˈɡo.di.e/</t>
+  </si>
+  <si>
+    <t>go-di-e</t>
+  </si>
+  <si>
+    <t>Bride</t>
+  </si>
+  <si>
+    <t>/ɡoˈdi.e/</t>
+  </si>
+  <si>
+    <t>Paddle</t>
+  </si>
+  <si>
+    <t>Bandurӑ</t>
+  </si>
+  <si>
+    <t>/ˈban.du.rə/</t>
+  </si>
+  <si>
+    <t>ban-du-rӑ</t>
+  </si>
+  <si>
+    <t>Thick piece of clothing</t>
+  </si>
+  <si>
+    <t>/banˈdu.rə/</t>
+  </si>
+  <si>
+    <t>Musical instrument resembling a guitar</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>/ˈʒu.ni.or/</t>
+  </si>
+  <si>
+    <t>ju-ni-or</t>
+  </si>
+  <si>
+    <t>The son (considered in relation to the father)</t>
+  </si>
+  <si>
+    <t>/ʒu.niˈor/</t>
+  </si>
+  <si>
+    <t>Athelets aged between 13 and 18</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>/ˈse.ni.or/</t>
+  </si>
+  <si>
+    <t>se-ni-or</t>
+  </si>
+  <si>
+    <t>The father(considered in relation to the son)</t>
+  </si>
+  <si>
+    <t>/se.niˈor/</t>
+  </si>
+  <si>
+    <t>Athletes above 18 years old</t>
+  </si>
+  <si>
+    <t>Bariton</t>
+  </si>
+  <si>
+    <t>/ba.riˈton/</t>
+  </si>
+  <si>
+    <t>ba-ri-ton</t>
+  </si>
+  <si>
+    <t>Singer whose voice is between bass and tenor</t>
+  </si>
+  <si>
+    <t>Musical instrument resembling the voice of a baritone</t>
+  </si>
+  <si>
+    <t>Comite</t>
+  </si>
+  <si>
+    <t>/ˈko.mi.te/</t>
+  </si>
+  <si>
+    <t>co-mi-te</t>
+  </si>
+  <si>
+    <t>The administrative head of a county</t>
+  </si>
+  <si>
+    <t>/koˈmi.te/</t>
+  </si>
+  <si>
+    <t>To do an act (used for a testimony in court)</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>/diˈrek.tor/</t>
+  </si>
+  <si>
+    <t>di-rec-tor</t>
+  </si>
+  <si>
+    <t>Owner of a business, building, or institution</t>
+  </si>
+  <si>
+    <t>/di.rekˈtor/</t>
+  </si>
+  <si>
+    <t>A person leading something, or someone; Folder in computer</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>/ˈme.di.a/</t>
+  </si>
+  <si>
+    <t>me-di-a</t>
+  </si>
+  <si>
+    <t>/me.diˈa/</t>
+  </si>
+  <si>
+    <t>To mediate a situation</t>
+  </si>
+  <si>
+    <t>Tempera</t>
+  </si>
+  <si>
+    <t>/ˈtem.pe.ra/</t>
+  </si>
+  <si>
+    <t>tem-pe-ra</t>
+  </si>
+  <si>
+    <t>Type of paint used in art</t>
+  </si>
+  <si>
+    <t>/tem.peˈra/</t>
+  </si>
+  <si>
+    <t>To be tamed, to relax</t>
+  </si>
+  <si>
+    <t>Corector</t>
+  </si>
+  <si>
+    <t>/koˈrek.tor/</t>
+  </si>
+  <si>
+    <t>co-rec-tor</t>
+  </si>
+  <si>
+    <t>A person grading</t>
+  </si>
+  <si>
+    <t>/ko.rekˈtor/</t>
+  </si>
+  <si>
+    <t>A machine used for grading</t>
+  </si>
+  <si>
+    <t>Dincoace</t>
+  </si>
+  <si>
+    <t>/ˈdin.ko.at͡ʃe/</t>
+  </si>
+  <si>
+    <t>din-coa-ce</t>
+  </si>
+  <si>
+    <t>In this part</t>
+  </si>
+  <si>
+    <t>/dinˈko.a.t͡ʃe/</t>
+  </si>
+  <si>
+    <t>From this part, from here</t>
+  </si>
+  <si>
+    <t>Vestibul</t>
+  </si>
+  <si>
+    <t>/vesˈti.bul/</t>
+  </si>
+  <si>
+    <t>ves-ti-bul</t>
+  </si>
+  <si>
+    <t>Ear cavity</t>
+  </si>
+  <si>
+    <t>/ves.tiˈbul/</t>
+  </si>
+  <si>
+    <t>Entree room of the house</t>
+  </si>
+  <si>
+    <t>însuși</t>
+  </si>
+  <si>
+    <t>/ˈɨn.su.ʃ/</t>
+  </si>
+  <si>
+    <t>în-su-și</t>
+  </si>
+  <si>
+    <t>Really, exactly; Personal</t>
+  </si>
+  <si>
+    <t>/ɨn.suˈʃ/</t>
+  </si>
+  <si>
+    <t>To seize something</t>
+  </si>
+  <si>
+    <t>Arici</t>
+  </si>
+  <si>
+    <t>/ˈa.rit͡ʃ/</t>
+  </si>
+  <si>
+    <t>a-ri-ci</t>
+  </si>
+  <si>
+    <t>Hedgehog</t>
+  </si>
+  <si>
+    <t>/a.riˈt͡ʃ/</t>
+  </si>
+  <si>
+    <t>To huddle like a hedgehog</t>
+  </si>
+  <si>
+    <t>Țarină</t>
+  </si>
+  <si>
+    <t>/ˈt͡sa.ri.nə/</t>
+  </si>
+  <si>
+    <t>Ța-ri-nӑ</t>
+  </si>
+  <si>
+    <t>Cultivated field</t>
+  </si>
+  <si>
+    <t>/t͡saˈri.nə/</t>
+  </si>
+  <si>
+    <t>The wife of the Tsar</t>
+  </si>
+  <si>
+    <t>Candida</t>
+  </si>
+  <si>
+    <t>/ˈkan.di.da/</t>
+  </si>
+  <si>
+    <t>can-di-da</t>
+  </si>
+  <si>
+    <t>Candida infection</t>
+  </si>
+  <si>
+    <t>/kan.diˈda/</t>
+  </si>
+  <si>
+    <t>To be proposed as a candidate for an election</t>
+  </si>
+  <si>
+    <t>/koˈlo.ni.e/</t>
+  </si>
+  <si>
+    <t>co-lo-ni-e</t>
+  </si>
+  <si>
+    <t>/ko.loˈni.e/</t>
+  </si>
+  <si>
+    <t>/reˈpu.bli.ka/</t>
+  </si>
+  <si>
+    <t>re-pu-bli-ca</t>
+  </si>
+  <si>
+    <t>/re.pu.bliˈka/</t>
+  </si>
+  <si>
+    <t>/kom.paˈni.e/</t>
+  </si>
+  <si>
+    <t>com-pa-ni-e</t>
+  </si>
+  <si>
+    <t>Comedie</t>
+  </si>
+  <si>
+    <t>/ko.meˈdi.e/</t>
+  </si>
+  <si>
+    <t>co-me-di-e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funny event </t>
+  </si>
+  <si>
+    <t>Comedy drama played in theaters</t>
   </si>
 </sst>
 </file>
@@ -6620,7 +7661,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6678,6 +7719,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6745,7 +7804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7001,6 +8060,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7297,7 +8364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BD612E-4F01-4431-B7ED-538D524FB554}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9606,57 +10673,55 @@
         <v>4</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>1616</v>
+        <v>1964</v>
       </c>
       <c r="C91" s="44">
         <v>1</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>1687</v>
+        <v>1965</v>
       </c>
       <c r="E91" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>1616</v>
+        <v>1966</v>
       </c>
       <c r="G91" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" s="44" t="s">
-        <v>1689</v>
-      </c>
-      <c r="I91" s="91" t="s">
-        <v>1700</v>
-      </c>
+        <v>1967</v>
+      </c>
+      <c r="I91" s="91"/>
     </row>
     <row r="92" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="42">
         <v>4</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>582</v>
+        <v>1616</v>
       </c>
       <c r="C92" s="44">
         <v>1</v>
       </c>
       <c r="D92" s="44" t="s">
-        <v>616</v>
+        <v>1687</v>
       </c>
       <c r="E92" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>582</v>
+        <v>1616</v>
       </c>
       <c r="G92" s="44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" s="44" t="s">
-        <v>635</v>
+        <v>1689</v>
       </c>
       <c r="I92" s="91" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9664,25 +10729,25 @@
         <v>4</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>1634</v>
+        <v>582</v>
       </c>
       <c r="C93" s="44">
         <v>1</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>1697</v>
+        <v>616</v>
       </c>
       <c r="E93" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>1634</v>
+        <v>582</v>
       </c>
       <c r="G93" s="44">
         <v>3</v>
       </c>
       <c r="H93" s="44" t="s">
-        <v>1698</v>
+        <v>635</v>
       </c>
       <c r="I93" s="91" t="s">
         <v>1701</v>
@@ -9693,28 +10758,28 @@
         <v>4</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>1615</v>
+        <v>1634</v>
       </c>
       <c r="C94" s="44">
         <v>1</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
       <c r="E94" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>1615</v>
+        <v>1634</v>
       </c>
       <c r="G94" s="44">
         <v>3</v>
       </c>
       <c r="H94" s="44" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I94" s="91" t="s">
-        <v>1628</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9722,28 +10787,28 @@
         <v>4</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="C95" s="44">
         <v>1</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="E95" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>1683</v>
+        <v>1615</v>
       </c>
       <c r="G95" s="44">
         <v>3</v>
       </c>
       <c r="H95" s="44" t="s">
-        <v>1685</v>
+        <v>1699</v>
       </c>
       <c r="I95" s="91" t="s">
-        <v>1702</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9751,28 +10816,28 @@
         <v>4</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>1545</v>
+        <v>1620</v>
       </c>
       <c r="C96" s="44">
         <v>1</v>
       </c>
       <c r="D96" s="44" t="s">
-        <v>1567</v>
+        <v>1682</v>
       </c>
       <c r="E96" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F96" s="43" t="s">
-        <v>1545</v>
+        <v>1683</v>
       </c>
       <c r="G96" s="44">
         <v>3</v>
       </c>
       <c r="H96" s="44" t="s">
-        <v>1568</v>
+        <v>1685</v>
       </c>
       <c r="I96" s="91" t="s">
-        <v>1672</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9780,25 +10845,25 @@
         <v>4</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>1640</v>
+        <v>1545</v>
       </c>
       <c r="C97" s="44">
         <v>1</v>
       </c>
       <c r="D97" s="44" t="s">
-        <v>1691</v>
+        <v>1567</v>
       </c>
       <c r="E97" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>1640</v>
+        <v>1545</v>
       </c>
       <c r="G97" s="44">
         <v>3</v>
       </c>
       <c r="H97" s="44" t="s">
-        <v>1692</v>
+        <v>1568</v>
       </c>
       <c r="I97" s="91" t="s">
         <v>1672</v>
@@ -9809,28 +10874,28 @@
         <v>4</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>1547</v>
+        <v>1640</v>
       </c>
       <c r="C98" s="44">
         <v>1</v>
       </c>
       <c r="D98" s="44" t="s">
-        <v>1562</v>
+        <v>1691</v>
       </c>
       <c r="E98" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F98" s="43" t="s">
-        <v>1547</v>
+        <v>1640</v>
       </c>
       <c r="G98" s="44">
         <v>3</v>
       </c>
       <c r="H98" s="44" t="s">
-        <v>1563</v>
+        <v>1692</v>
       </c>
       <c r="I98" s="91" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9838,25 +10903,25 @@
         <v>4</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>1637</v>
+        <v>1547</v>
       </c>
       <c r="C99" s="44">
         <v>1</v>
       </c>
       <c r="D99" s="44" t="s">
-        <v>1695</v>
+        <v>1562</v>
       </c>
       <c r="E99" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>1637</v>
+        <v>1547</v>
       </c>
       <c r="G99" s="44">
         <v>3</v>
       </c>
       <c r="H99" s="44" t="s">
-        <v>1696</v>
+        <v>1563</v>
       </c>
       <c r="I99" s="91" t="s">
         <v>1673</v>
@@ -9867,28 +10932,28 @@
         <v>4</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>1621</v>
+        <v>1637</v>
       </c>
       <c r="C100" s="44">
         <v>1</v>
       </c>
       <c r="D100" s="44" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="E100" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F100" s="43" t="s">
-        <v>1621</v>
+        <v>1637</v>
       </c>
       <c r="G100" s="44">
         <v>3</v>
       </c>
       <c r="H100" s="44" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="I100" s="91" t="s">
-        <v>1703</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9896,28 +10961,28 @@
         <v>4</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>1595</v>
+        <v>1621</v>
       </c>
       <c r="C101" s="44">
         <v>1</v>
       </c>
       <c r="D101" s="44" t="s">
-        <v>1596</v>
+        <v>1693</v>
       </c>
       <c r="E101" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F101" s="43" t="s">
-        <v>1598</v>
+        <v>1621</v>
       </c>
       <c r="G101" s="44">
         <v>3</v>
       </c>
       <c r="H101" s="44" t="s">
-        <v>1599</v>
+        <v>1694</v>
       </c>
       <c r="I101" s="91" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
@@ -9925,32 +10990,61 @@
         <v>4</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>604</v>
+        <v>1595</v>
       </c>
       <c r="C102" s="44">
         <v>1</v>
       </c>
       <c r="D102" s="44" t="s">
-        <v>639</v>
+        <v>1596</v>
       </c>
       <c r="E102" s="45" t="s">
         <v>1211</v>
       </c>
       <c r="F102" s="43" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G102" s="44">
+        <v>3</v>
+      </c>
+      <c r="H102" s="44" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I102" s="91" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="42">
+        <v>4</v>
+      </c>
+      <c r="B103" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="G102" s="44">
-        <v>3</v>
-      </c>
-      <c r="H102" s="44" t="s">
+      <c r="C103" s="44">
+        <v>1</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>639</v>
+      </c>
+      <c r="E103" s="45" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F103" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="G103" s="44">
+        <v>3</v>
+      </c>
+      <c r="H103" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="I102" s="91" t="s">
+      <c r="I103" s="91" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B103" s="33"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B104" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20316,1438 +21410,3033 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96917FB2-20D6-4B5F-BB8C-05A4A41F3BA1}">
-  <dimension ref="A1:L56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137EA31-6E94-4D35-8885-E02B244917B6}">
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" customWidth="1"/>
-    <col min="5" max="5" width="1.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="6" width="34.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125"/>
+    <col min="8" max="8" width="26.08984375" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="10" max="11" width="40.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D4" s="47" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>1222</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>1</v>
-      </c>
       <c r="G4" s="46" t="s">
-        <v>1224</v>
+        <v>1</v>
       </c>
       <c r="H4" s="46" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K4" s="99" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34">
-        <v>2</v>
-      </c>
-      <c r="B5" s="35" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="100">
+        <v>2</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D5" s="100">
+        <v>1</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F5" s="100" t="s">
         <v>1812</v>
       </c>
-      <c r="C5" s="36">
-        <v>1</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="G5" s="100" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H5" s="100" t="s">
+        <v>1977</v>
+      </c>
+      <c r="I5" s="100">
+        <v>2</v>
+      </c>
+      <c r="J5" s="100" t="s">
+        <v>1976</v>
+      </c>
+      <c r="K5" s="100" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="100">
+        <v>2</v>
+      </c>
+      <c r="B6" s="100" t="s">
         <v>1813</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>1812</v>
-      </c>
-      <c r="G5" s="36">
-        <v>2</v>
-      </c>
-      <c r="H5" s="36" t="s">
+      <c r="C6" s="100" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D6" s="100">
+        <v>1</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F6" s="100" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G6" s="100" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H6" s="100" t="s">
+        <v>1980</v>
+      </c>
+      <c r="I6" s="100">
+        <v>2</v>
+      </c>
+      <c r="J6" s="100" t="s">
+        <v>1979</v>
+      </c>
+      <c r="K6" s="100" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="100">
+        <v>2</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D7" s="100">
+        <v>1</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G7" s="100" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H7" s="100" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I7" s="100">
+        <v>2</v>
+      </c>
+      <c r="J7" s="100" t="s">
+        <v>1982</v>
+      </c>
+      <c r="K7" s="100" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="100">
+        <v>2</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D8" s="100">
+        <v>1</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G8" s="100" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H8" s="100" t="s">
+        <v>1986</v>
+      </c>
+      <c r="I8" s="100">
+        <v>2</v>
+      </c>
+      <c r="J8" s="100" t="s">
+        <v>1985</v>
+      </c>
+      <c r="K8" s="100" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34">
-        <v>2</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C6" s="36">
-        <v>1</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>1814</v>
-      </c>
-      <c r="G6" s="36">
-        <v>2</v>
-      </c>
-      <c r="H6" s="36" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="100">
+        <v>2</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D9" s="100">
+        <v>1</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G9" s="100" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H9" s="100" t="s">
+        <v>1989</v>
+      </c>
+      <c r="I9" s="100">
+        <v>2</v>
+      </c>
+      <c r="J9" s="100" t="s">
+        <v>1988</v>
+      </c>
+      <c r="K9" s="100" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34">
-        <v>2</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>1817</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G7" s="36">
-        <v>2</v>
-      </c>
-      <c r="H7" s="36" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="100">
+        <v>2</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D10" s="100">
+        <v>1</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H10" s="100" t="s">
+        <v>1992</v>
+      </c>
+      <c r="I10" s="100">
+        <v>2</v>
+      </c>
+      <c r="J10" s="100" t="s">
+        <v>1991</v>
+      </c>
+      <c r="K10" s="100" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34">
-        <v>2</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>1818</v>
-      </c>
-      <c r="G8" s="36">
-        <v>2</v>
-      </c>
-      <c r="H8" s="36" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="100">
+        <v>2</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D11" s="100">
+        <v>1</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H11" s="100" t="s">
+        <v>1995</v>
+      </c>
+      <c r="I11" s="100">
+        <v>2</v>
+      </c>
+      <c r="J11" s="100" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K11" s="100" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34">
-        <v>2</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>1820</v>
-      </c>
-      <c r="G9" s="36">
-        <v>2</v>
-      </c>
-      <c r="H9" s="36" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="100">
+        <v>2</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D12" s="100">
+        <v>1</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G12" s="100" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H12" s="100" t="s">
+        <v>1998</v>
+      </c>
+      <c r="I12" s="100">
+        <v>2</v>
+      </c>
+      <c r="J12" s="100" t="s">
+        <v>1997</v>
+      </c>
+      <c r="K12" s="100" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="100">
+        <v>2</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="100">
+        <v>1</v>
+      </c>
+      <c r="E13" s="100" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F13" s="100" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G13" s="100" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H13" s="100" t="s">
+        <v>2002</v>
+      </c>
+      <c r="I13" s="100">
+        <v>2</v>
+      </c>
+      <c r="J13" s="100" t="s">
+        <v>2001</v>
+      </c>
+      <c r="K13" s="100" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34">
-        <v>2</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>1823</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>1822</v>
-      </c>
-      <c r="G10" s="36">
-        <v>2</v>
-      </c>
-      <c r="H10" s="36" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="100">
+        <v>2</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D14" s="100">
+        <v>1</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H14" s="100" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I14" s="100">
+        <v>2</v>
+      </c>
+      <c r="J14" s="100" t="s">
+        <v>2004</v>
+      </c>
+      <c r="K14" s="100" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34">
-        <v>2</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C11" s="36">
-        <v>1</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>1825</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>1824</v>
-      </c>
-      <c r="G11" s="36">
-        <v>2</v>
-      </c>
-      <c r="H11" s="36" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="100">
+        <v>2</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D15" s="100">
+        <v>1</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H15" s="100" t="s">
+        <v>2008</v>
+      </c>
+      <c r="I15" s="100">
+        <v>2</v>
+      </c>
+      <c r="J15" s="100" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K15" s="100" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34">
-        <v>2</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C12" s="36">
-        <v>1</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>1827</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>1826</v>
-      </c>
-      <c r="G12" s="36">
-        <v>2</v>
-      </c>
-      <c r="H12" s="36" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="100">
+        <v>2</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D16" s="100">
+        <v>1</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G16" s="100" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H16" s="100" t="s">
+        <v>2011</v>
+      </c>
+      <c r="I16" s="100">
+        <v>2</v>
+      </c>
+      <c r="J16" s="100" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K16" s="100" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34">
-        <v>2</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C13" s="36">
-        <v>1</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>1828</v>
-      </c>
-      <c r="G13" s="36">
-        <v>2</v>
-      </c>
-      <c r="H13" s="36" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="100">
+        <v>2</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C17" s="100" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D17" s="100">
+        <v>1</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H17" s="100" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I17" s="100">
+        <v>2</v>
+      </c>
+      <c r="J17" s="100" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K17" s="100" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34">
-        <v>2</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C14" s="36">
-        <v>1</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>1831</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>1830</v>
-      </c>
-      <c r="G14" s="36">
-        <v>2</v>
-      </c>
-      <c r="H14" s="36" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="100">
+        <v>2</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D18" s="100">
+        <v>1</v>
+      </c>
+      <c r="E18" s="100" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F18" s="100" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H18" s="100" t="s">
+        <v>2017</v>
+      </c>
+      <c r="I18" s="100">
+        <v>2</v>
+      </c>
+      <c r="J18" s="100" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K18" s="100" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34">
-        <v>2</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C15" s="36">
-        <v>1</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G15" s="36">
-        <v>2</v>
-      </c>
-      <c r="H15" s="36" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="100">
+        <v>2</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="100">
+        <v>1</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F19" s="100" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G19" s="100" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H19" s="100" t="s">
+        <v>2020</v>
+      </c>
+      <c r="I19" s="100">
+        <v>2</v>
+      </c>
+      <c r="J19" s="100" t="s">
+        <v>2019</v>
+      </c>
+      <c r="K19" s="100" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34">
-        <v>2</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C16" s="36">
-        <v>1</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>1834</v>
-      </c>
-      <c r="G16" s="36">
-        <v>2</v>
-      </c>
-      <c r="H16" s="36" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="100">
+        <v>2</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D20" s="100">
+        <v>1</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G20" s="100" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H20" s="100" t="s">
+        <v>2023</v>
+      </c>
+      <c r="I20" s="100">
+        <v>2</v>
+      </c>
+      <c r="J20" s="100" t="s">
+        <v>2022</v>
+      </c>
+      <c r="K20" s="100" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C17" s="36">
-        <v>1</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>1836</v>
-      </c>
-      <c r="G17" s="36">
-        <v>1</v>
-      </c>
-      <c r="H17" s="36" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="100">
+        <v>2</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D21" s="100">
+        <v>1</v>
+      </c>
+      <c r="E21" s="100" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G21" s="100" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H21" s="100" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I21" s="100">
+        <v>2</v>
+      </c>
+      <c r="J21" s="100" t="s">
+        <v>2025</v>
+      </c>
+      <c r="K21" s="100" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34">
-        <v>2</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C18" s="36">
-        <v>1</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G18" s="36">
-        <v>2</v>
-      </c>
-      <c r="H18" s="36" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="100">
+        <v>2</v>
+      </c>
+      <c r="B22" s="100" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D22" s="100">
+        <v>1</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G22" s="100" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H22" s="100" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I22" s="100">
+        <v>2</v>
+      </c>
+      <c r="J22" s="100" t="s">
+        <v>2028</v>
+      </c>
+      <c r="K22" s="100" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34">
-        <v>2</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>1841</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G19" s="36">
-        <v>2</v>
-      </c>
-      <c r="H19" s="36" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="100">
+        <v>2</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D23" s="100">
+        <v>1</v>
+      </c>
+      <c r="E23" s="100" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G23" s="100" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H23" s="100" t="s">
+        <v>2032</v>
+      </c>
+      <c r="I23" s="100">
+        <v>2</v>
+      </c>
+      <c r="J23" s="100" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K23" s="100" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34">
-        <v>2</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C20" s="36">
-        <v>1</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>1842</v>
-      </c>
-      <c r="G20" s="36">
-        <v>2</v>
-      </c>
-      <c r="H20" s="36" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="100">
+        <v>2</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D24" s="100">
+        <v>1</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G24" s="100" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H24" s="100" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I24" s="100">
+        <v>2</v>
+      </c>
+      <c r="J24" s="100" t="s">
+        <v>2034</v>
+      </c>
+      <c r="K24" s="100" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34">
-        <v>2</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C21" s="36">
-        <v>1</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G21" s="36">
-        <v>2</v>
-      </c>
-      <c r="H21" s="36" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="100">
+        <v>2</v>
+      </c>
+      <c r="B25" s="100" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D25" s="100">
+        <v>1</v>
+      </c>
+      <c r="E25" s="100" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F25" s="100" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G25" s="100" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H25" s="100" t="s">
+        <v>2038</v>
+      </c>
+      <c r="I25" s="100">
+        <v>2</v>
+      </c>
+      <c r="J25" s="100" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K25" s="100" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34">
-        <v>2</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C22" s="36">
-        <v>1</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G22" s="36">
-        <v>2</v>
-      </c>
-      <c r="H22" s="36" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="100">
+        <v>2</v>
+      </c>
+      <c r="B26" s="100" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D26" s="100">
+        <v>1</v>
+      </c>
+      <c r="E26" s="100" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G26" s="100" t="s">
+        <v>1853</v>
+      </c>
+      <c r="H26" s="100" t="s">
+        <v>2041</v>
+      </c>
+      <c r="I26" s="100">
+        <v>2</v>
+      </c>
+      <c r="J26" s="100" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K26" s="100" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34">
-        <v>2</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C23" s="36">
-        <v>1</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>1849</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>1848</v>
-      </c>
-      <c r="G23" s="36">
-        <v>2</v>
-      </c>
-      <c r="H23" s="36" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="100">
+        <v>2</v>
+      </c>
+      <c r="B27" s="100" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C27" s="100" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D27" s="100">
+        <v>1</v>
+      </c>
+      <c r="E27" s="100" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F27" s="100" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G27" s="100" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H27" s="100" t="s">
+        <v>2044</v>
+      </c>
+      <c r="I27" s="100">
+        <v>2</v>
+      </c>
+      <c r="J27" s="100" t="s">
+        <v>2043</v>
+      </c>
+      <c r="K27" s="100" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34">
-        <v>2</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C24" s="36">
-        <v>1</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>1851</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G24" s="36">
-        <v>2</v>
-      </c>
-      <c r="H24" s="36" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="100">
+        <v>2</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D28" s="100">
+        <v>1</v>
+      </c>
+      <c r="E28" s="100" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F28" s="100" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G28" s="100" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H28" s="100" t="s">
+        <v>2047</v>
+      </c>
+      <c r="I28" s="100">
+        <v>2</v>
+      </c>
+      <c r="J28" s="100" t="s">
+        <v>2046</v>
+      </c>
+      <c r="K28" s="100" t="s">
         <v>1934</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34">
-        <v>2</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C25" s="36">
-        <v>1</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G25" s="36">
-        <v>2</v>
-      </c>
-      <c r="H25" s="36" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="100">
+        <v>2</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C29" s="100" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D29" s="100">
+        <v>1</v>
+      </c>
+      <c r="E29" s="100" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F29" s="100" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G29" s="100" t="s">
+        <v>1858</v>
+      </c>
+      <c r="H29" s="100" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I29" s="100">
+        <v>2</v>
+      </c>
+      <c r="J29" s="100" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K29" s="100" t="s">
         <v>1935</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="34">
-        <v>2</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C26" s="36">
-        <v>1</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>1855</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>1854</v>
-      </c>
-      <c r="G26" s="36">
-        <v>2</v>
-      </c>
-      <c r="H26" s="36" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="100">
+        <v>2</v>
+      </c>
+      <c r="B30" s="100" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C30" s="100" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D30" s="100">
+        <v>1</v>
+      </c>
+      <c r="E30" s="100" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F30" s="100" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G30" s="100" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H30" s="100" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I30" s="100">
+        <v>2</v>
+      </c>
+      <c r="J30" s="100" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K30" s="100" t="s">
         <v>1936</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="34">
-        <v>2</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C27" s="36">
-        <v>1</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G27" s="36">
-        <v>2</v>
-      </c>
-      <c r="H27" s="36" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="100">
+        <v>2</v>
+      </c>
+      <c r="B31" s="100" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C31" s="100" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D31" s="100">
+        <v>1</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F31" s="100" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G31" s="100" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H31" s="100" t="s">
+        <v>2057</v>
+      </c>
+      <c r="I31" s="100">
+        <v>2</v>
+      </c>
+      <c r="J31" s="100" t="s">
+        <v>2055</v>
+      </c>
+      <c r="K31" s="100" t="s">
         <v>1937</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="34">
-        <v>2</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C28" s="36">
-        <v>1</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>1857</v>
-      </c>
-      <c r="G28" s="36">
-        <v>2</v>
-      </c>
-      <c r="H28" s="36" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="100">
+        <v>2</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C32" s="100" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D32" s="100">
+        <v>1</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F32" s="100" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G32" s="100" t="s">
+        <v>1863</v>
+      </c>
+      <c r="H32" s="100" t="s">
+        <v>2060</v>
+      </c>
+      <c r="I32" s="100">
+        <v>2</v>
+      </c>
+      <c r="J32" s="100" t="s">
+        <v>2059</v>
+      </c>
+      <c r="K32" s="100" t="s">
         <v>1938</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34">
-        <v>2</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C29" s="36">
-        <v>1</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G29" s="36">
-        <v>2</v>
-      </c>
-      <c r="H29" s="36" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="100">
+        <v>2</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C33" s="100" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D33" s="100">
+        <v>1</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F33" s="100" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G33" s="100" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H33" s="100" t="s">
+        <v>2063</v>
+      </c>
+      <c r="I33" s="100">
+        <v>2</v>
+      </c>
+      <c r="J33" s="100" t="s">
+        <v>2062</v>
+      </c>
+      <c r="K33" s="100" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="34">
-        <v>2</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C30" s="36">
-        <v>1</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>1862</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G30" s="36">
-        <v>2</v>
-      </c>
-      <c r="H30" s="36" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="100">
+        <v>2</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D34" s="100">
+        <v>1</v>
+      </c>
+      <c r="E34" s="100" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F34" s="100" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G34" s="100" t="s">
+        <v>1867</v>
+      </c>
+      <c r="H34" s="100" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I34" s="100">
+        <v>2</v>
+      </c>
+      <c r="J34" s="100" t="s">
+        <v>2065</v>
+      </c>
+      <c r="K34" s="100" t="s">
         <v>1940</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34">
-        <v>2</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C31" s="36">
-        <v>1</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>1863</v>
-      </c>
-      <c r="G31" s="36">
-        <v>2</v>
-      </c>
-      <c r="H31" s="36" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="100">
+        <v>2</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C35" s="100" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D35" s="100">
+        <v>1</v>
+      </c>
+      <c r="E35" s="100" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F35" s="100" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G35" s="100" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H35" s="100" t="s">
+        <v>2069</v>
+      </c>
+      <c r="I35" s="100">
+        <v>2</v>
+      </c>
+      <c r="J35" s="100" t="s">
+        <v>2068</v>
+      </c>
+      <c r="K35" s="100" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="34">
-        <v>2</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C32" s="36">
-        <v>1</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>1866</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>1865</v>
-      </c>
-      <c r="G32" s="36">
-        <v>2</v>
-      </c>
-      <c r="H32" s="36" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="100">
+        <v>2</v>
+      </c>
+      <c r="B36" s="100" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C36" s="100" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D36" s="100">
+        <v>1</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F36" s="100" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G36" s="100" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H36" s="100" t="s">
+        <v>2072</v>
+      </c>
+      <c r="I36" s="100">
+        <v>2</v>
+      </c>
+      <c r="J36" s="100" t="s">
+        <v>2071</v>
+      </c>
+      <c r="K36" s="100" t="s">
         <v>1942</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="34">
-        <v>2</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C33" s="36">
-        <v>1</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>1868</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>1867</v>
-      </c>
-      <c r="G33" s="36">
-        <v>2</v>
-      </c>
-      <c r="H33" s="36" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="100">
+        <v>2</v>
+      </c>
+      <c r="B37" s="100" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C37" s="100" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D37" s="100">
+        <v>1</v>
+      </c>
+      <c r="E37" s="100" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F37" s="100" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G37" s="100" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H37" s="100" t="s">
+        <v>2075</v>
+      </c>
+      <c r="I37" s="100">
+        <v>2</v>
+      </c>
+      <c r="J37" s="100" t="s">
+        <v>2074</v>
+      </c>
+      <c r="K37" s="100" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="34">
-        <v>2</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C34" s="36">
-        <v>1</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G34" s="36">
-        <v>2</v>
-      </c>
-      <c r="H34" s="36" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="100">
+        <v>2</v>
+      </c>
+      <c r="B38" s="100" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C38" s="100" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D38" s="100">
+        <v>1</v>
+      </c>
+      <c r="E38" s="100" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F38" s="100" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G38" s="100" t="s">
+        <v>1875</v>
+      </c>
+      <c r="H38" s="100" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I38" s="100">
+        <v>2</v>
+      </c>
+      <c r="J38" s="100" t="s">
+        <v>2077</v>
+      </c>
+      <c r="K38" s="100" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34">
-        <v>2</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>1871</v>
-      </c>
-      <c r="C35" s="36">
-        <v>1</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>1872</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>1871</v>
-      </c>
-      <c r="G35" s="36">
-        <v>2</v>
-      </c>
-      <c r="H35" s="36" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="100">
+        <v>2</v>
+      </c>
+      <c r="B39" s="100" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C39" s="100" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D39" s="100">
+        <v>1</v>
+      </c>
+      <c r="E39" s="100" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F39" s="100" t="s">
+        <v>2082</v>
+      </c>
+      <c r="G39" s="100" t="s">
+        <v>2079</v>
+      </c>
+      <c r="H39" s="100" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I39" s="100">
+        <v>2</v>
+      </c>
+      <c r="J39" s="100" t="s">
+        <v>2081</v>
+      </c>
+      <c r="K39" s="100" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="100">
+        <v>2</v>
+      </c>
+      <c r="B40" s="100" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C40" s="100" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D40" s="100">
+        <v>1</v>
+      </c>
+      <c r="E40" s="100" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F40" s="100" t="s">
+        <v>2088</v>
+      </c>
+      <c r="G40" s="100" t="s">
+        <v>2085</v>
+      </c>
+      <c r="H40" s="100" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I40" s="100">
+        <v>2</v>
+      </c>
+      <c r="J40" s="100" t="s">
+        <v>2087</v>
+      </c>
+      <c r="K40" s="100" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="100">
+        <v>2</v>
+      </c>
+      <c r="B41" s="100" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C41" s="100" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D41" s="100">
+        <v>1</v>
+      </c>
+      <c r="E41" s="100" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F41" s="100" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G41" s="100" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H41" s="100" t="s">
+        <v>2094</v>
+      </c>
+      <c r="I41" s="100">
+        <v>2</v>
+      </c>
+      <c r="J41" s="100" t="s">
+        <v>2092</v>
+      </c>
+      <c r="K41" s="100" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="100">
+        <v>2</v>
+      </c>
+      <c r="B42" s="100" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C42" s="100" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D42" s="100">
+        <v>1</v>
+      </c>
+      <c r="E42" s="100" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F42" s="100" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G42" s="100" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H42" s="100" t="s">
+        <v>2100</v>
+      </c>
+      <c r="I42" s="100">
+        <v>2</v>
+      </c>
+      <c r="J42" s="100" t="s">
+        <v>2098</v>
+      </c>
+      <c r="K42" s="100" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="100">
+        <v>2</v>
+      </c>
+      <c r="B43" s="100" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C43" s="100" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D43" s="100">
+        <v>1</v>
+      </c>
+      <c r="E43" s="100" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F43" s="100" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G43" s="100" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H43" s="100" t="s">
+        <v>2106</v>
+      </c>
+      <c r="I43" s="100">
+        <v>2</v>
+      </c>
+      <c r="J43" s="100" t="s">
+        <v>2104</v>
+      </c>
+      <c r="K43" s="100" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="100">
+        <v>2</v>
+      </c>
+      <c r="B44" s="100" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C44" s="100" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D44" s="100">
+        <v>1</v>
+      </c>
+      <c r="E44" s="100" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F44" s="100" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G44" s="100" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H44" s="100" t="s">
+        <v>2112</v>
+      </c>
+      <c r="I44" s="100">
+        <v>2</v>
+      </c>
+      <c r="J44" s="100" t="s">
+        <v>2110</v>
+      </c>
+      <c r="K44" s="100" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="100">
+        <v>2</v>
+      </c>
+      <c r="B45" s="100" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C45" s="100" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D45" s="100">
+        <v>1</v>
+      </c>
+      <c r="E45" s="100" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F45" s="100" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G45" s="100" t="s">
+        <v>2114</v>
+      </c>
+      <c r="H45" s="100" t="s">
+        <v>2118</v>
+      </c>
+      <c r="I45" s="100">
+        <v>2</v>
+      </c>
+      <c r="J45" s="100" t="s">
+        <v>2116</v>
+      </c>
+      <c r="K45" s="100" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="100">
+        <v>2</v>
+      </c>
+      <c r="B46" s="100" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C46" s="100" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D46" s="100">
+        <v>1</v>
+      </c>
+      <c r="E46" s="100" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F46" s="100" t="s">
+        <v>2123</v>
+      </c>
+      <c r="G46" s="100" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H46" s="100" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I46" s="100">
+        <v>2</v>
+      </c>
+      <c r="J46" s="100" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K46" s="100" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="100">
+        <v>2</v>
+      </c>
+      <c r="B47" s="100" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C47" s="100" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D47" s="100">
+        <v>1</v>
+      </c>
+      <c r="E47" s="100" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F47" s="100" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G47" s="100" t="s">
+        <v>2126</v>
+      </c>
+      <c r="H47" s="100" t="s">
+        <v>2130</v>
+      </c>
+      <c r="I47" s="100">
+        <v>2</v>
+      </c>
+      <c r="J47" s="100" t="s">
+        <v>2128</v>
+      </c>
+      <c r="K47" s="100" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="100">
+        <v>2</v>
+      </c>
+      <c r="B48" s="100" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C48" s="100" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D48" s="100">
+        <v>1</v>
+      </c>
+      <c r="E48" s="100" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F48" s="100" t="s">
+        <v>2135</v>
+      </c>
+      <c r="G48" s="100" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H48" s="100" t="s">
+        <v>2136</v>
+      </c>
+      <c r="I48" s="100">
+        <v>2</v>
+      </c>
+      <c r="J48" s="100" t="s">
+        <v>2134</v>
+      </c>
+      <c r="K48" s="100" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="100">
+        <v>2</v>
+      </c>
+      <c r="B49" s="100" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C49" s="100" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D49" s="100">
+        <v>1</v>
+      </c>
+      <c r="E49" s="100" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F49" s="100" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G49" s="100" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H49" s="100" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I49" s="100">
+        <v>2</v>
+      </c>
+      <c r="J49" s="100" t="s">
+        <v>2140</v>
+      </c>
+      <c r="K49" s="100" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="100">
+        <v>2</v>
+      </c>
+      <c r="B50" s="100" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C50" s="100" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D50" s="100">
+        <v>1</v>
+      </c>
+      <c r="E50" s="100" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F50" s="100" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G50" s="100" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H50" s="100" t="s">
+        <v>2148</v>
+      </c>
+      <c r="I50" s="100">
+        <v>2</v>
+      </c>
+      <c r="J50" s="100" t="s">
+        <v>2146</v>
+      </c>
+      <c r="K50" s="100" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="101">
+        <v>3</v>
+      </c>
+      <c r="B51" s="101" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C51" s="101" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D51" s="101">
+        <v>1</v>
+      </c>
+      <c r="E51" s="101" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F51" s="101" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G51" s="101" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H51" s="101" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I51" s="101">
+        <v>2</v>
+      </c>
+      <c r="J51" s="101" t="s">
+        <v>2151</v>
+      </c>
+      <c r="K51" s="101" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="34">
-        <v>2</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C36" s="36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G36" s="36">
-        <v>2</v>
-      </c>
-      <c r="H36" s="36" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="101">
+        <v>3</v>
+      </c>
+      <c r="B52" s="101" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C52" s="101" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D52" s="101">
+        <v>1</v>
+      </c>
+      <c r="E52" s="101" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F52" s="101" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G52" s="101" t="s">
+        <v>1879</v>
+      </c>
+      <c r="H52" s="101" t="s">
+        <v>2155</v>
+      </c>
+      <c r="I52" s="101">
+        <v>2</v>
+      </c>
+      <c r="J52" s="101" t="s">
+        <v>2154</v>
+      </c>
+      <c r="K52" s="101" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="34">
-        <v>2</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C37" s="36">
-        <v>1</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>1875</v>
-      </c>
-      <c r="G37" s="36">
-        <v>2</v>
-      </c>
-      <c r="H37" s="36" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="101">
+        <v>3</v>
+      </c>
+      <c r="B53" s="101" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C53" s="101" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D53" s="101">
+        <v>2</v>
+      </c>
+      <c r="E53" s="101" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F53" s="101" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G53" s="101" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H53" s="101" t="s">
+        <v>2158</v>
+      </c>
+      <c r="I53" s="101">
+        <v>3</v>
+      </c>
+      <c r="J53" s="101" t="s">
+        <v>2157</v>
+      </c>
+      <c r="K53" s="101" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34">
-        <v>2</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C38" s="36">
-        <v>1</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>1878</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G38" s="36">
-        <v>2</v>
-      </c>
-      <c r="H38" s="36" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="101">
+        <v>3</v>
+      </c>
+      <c r="B54" s="101" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C54" s="101" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D54" s="101">
+        <v>1</v>
+      </c>
+      <c r="E54" s="101" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F54" s="101" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G54" s="101" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H54" s="101" t="s">
+        <v>2161</v>
+      </c>
+      <c r="I54" s="101">
+        <v>2</v>
+      </c>
+      <c r="J54" s="101" t="s">
+        <v>2160</v>
+      </c>
+      <c r="K54" s="101" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="38">
-        <v>3</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C39" s="40">
-        <v>1</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G39" s="40">
-        <v>2</v>
-      </c>
-      <c r="H39" s="40" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="101">
+        <v>3</v>
+      </c>
+      <c r="B55" s="101" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C55" s="101" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D55" s="101">
+        <v>1</v>
+      </c>
+      <c r="E55" s="101" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F55" s="101" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G55" s="101" t="s">
+        <v>1885</v>
+      </c>
+      <c r="H55" s="101" t="s">
+        <v>2164</v>
+      </c>
+      <c r="I55" s="101">
+        <v>2</v>
+      </c>
+      <c r="J55" s="101" t="s">
+        <v>2163</v>
+      </c>
+      <c r="K55" s="101" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38">
-        <v>3</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C40" s="40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>1881</v>
-      </c>
-      <c r="G40" s="40">
-        <v>2</v>
-      </c>
-      <c r="H40" s="40" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="101">
+        <v>3</v>
+      </c>
+      <c r="B56" s="101" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C56" s="101" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D56" s="101">
+        <v>2</v>
+      </c>
+      <c r="E56" s="101" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F56" s="101" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G56" s="101" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H56" s="101" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I56" s="101">
+        <v>3</v>
+      </c>
+      <c r="J56" s="101" t="s">
+        <v>2166</v>
+      </c>
+      <c r="K56" s="101" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="38">
-        <v>3</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C41" s="40">
-        <v>2</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>1883</v>
-      </c>
-      <c r="G41" s="40">
-        <v>3</v>
-      </c>
-      <c r="H41" s="40" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="101">
+        <v>3</v>
+      </c>
+      <c r="B57" s="101" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C57" s="101" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D57" s="101">
+        <v>1</v>
+      </c>
+      <c r="E57" s="101" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F57" s="101" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G57" s="101" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H57" s="101" t="s">
+        <v>2170</v>
+      </c>
+      <c r="I57" s="101">
+        <v>2</v>
+      </c>
+      <c r="J57" s="101" t="s">
+        <v>2169</v>
+      </c>
+      <c r="K57" s="101" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="38">
-        <v>3</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C42" s="40">
-        <v>1</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>1885</v>
-      </c>
-      <c r="G42" s="40">
-        <v>2</v>
-      </c>
-      <c r="H42" s="40" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="101">
+        <v>3</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C58" s="101" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D58" s="101">
+        <v>1</v>
+      </c>
+      <c r="E58" s="101" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F58" s="101" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G58" s="101" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H58" s="101" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I58" s="101">
+        <v>2</v>
+      </c>
+      <c r="J58" s="101" t="s">
+        <v>2172</v>
+      </c>
+      <c r="K58" s="101" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="38">
-        <v>3</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C43" s="40">
-        <v>1</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>1888</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>1887</v>
-      </c>
-      <c r="G43" s="40">
-        <v>2</v>
-      </c>
-      <c r="H43" s="40" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="101">
+        <v>3</v>
+      </c>
+      <c r="B59" s="101" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C59" s="101" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D59" s="101">
+        <v>1</v>
+      </c>
+      <c r="E59" s="101" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F59" s="101" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G59" s="101" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H59" s="101" t="s">
+        <v>2177</v>
+      </c>
+      <c r="I59" s="101">
+        <v>2</v>
+      </c>
+      <c r="J59" s="101" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K59" s="101" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="38">
-        <v>3</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C44" s="40">
-        <v>2</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>1889</v>
-      </c>
-      <c r="G44" s="40">
-        <v>3</v>
-      </c>
-      <c r="H44" s="40" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="101">
+        <v>3</v>
+      </c>
+      <c r="B60" s="101" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C60" s="101" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D60" s="101">
+        <v>1</v>
+      </c>
+      <c r="E60" s="101" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F60" s="101" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G60" s="101" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H60" s="101" t="s">
+        <v>2180</v>
+      </c>
+      <c r="I60" s="101">
+        <v>2</v>
+      </c>
+      <c r="J60" s="101" t="s">
+        <v>2179</v>
+      </c>
+      <c r="K60" s="101" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="38">
-        <v>3</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C45" s="40">
-        <v>1</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>1891</v>
-      </c>
-      <c r="G45" s="40">
-        <v>2</v>
-      </c>
-      <c r="H45" s="40" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="101">
+        <v>3</v>
+      </c>
+      <c r="B61" s="101" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C61" s="101" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D61" s="101">
+        <v>2</v>
+      </c>
+      <c r="E61" s="101" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F61" s="101" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G61" s="101" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H61" s="101" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I61" s="101">
+        <v>3</v>
+      </c>
+      <c r="J61" s="101" t="s">
+        <v>2182</v>
+      </c>
+      <c r="K61" s="101" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="38">
-        <v>3</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C46" s="40">
-        <v>1</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>1894</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>1893</v>
-      </c>
-      <c r="G46" s="40">
-        <v>2</v>
-      </c>
-      <c r="H46" s="40" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="101">
+        <v>3</v>
+      </c>
+      <c r="B62" s="101" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C62" s="101" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D62" s="101">
+        <v>1</v>
+      </c>
+      <c r="E62" s="101" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F62" s="101" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G62" s="101" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H62" s="101" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I62" s="101">
+        <v>2</v>
+      </c>
+      <c r="J62" s="101" t="s">
+        <v>2185</v>
+      </c>
+      <c r="K62" s="101" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="38">
-        <v>3</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C47" s="40">
-        <v>1</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>1895</v>
-      </c>
-      <c r="G47" s="40">
-        <v>2</v>
-      </c>
-      <c r="H47" s="40" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="101">
+        <v>3</v>
+      </c>
+      <c r="B63" s="101" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C63" s="101" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D63" s="101">
+        <v>1</v>
+      </c>
+      <c r="E63" s="101" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F63" s="101" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G63" s="101" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H63" s="101" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I63" s="101">
+        <v>3</v>
+      </c>
+      <c r="J63" s="101" t="s">
+        <v>2188</v>
+      </c>
+      <c r="K63" s="101" t="s">
         <v>1957</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="38">
-        <v>3</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C48" s="40">
-        <v>1</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>1898</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F48" s="39" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G48" s="40">
-        <v>2</v>
-      </c>
-      <c r="H48" s="40" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="101">
+        <v>3</v>
+      </c>
+      <c r="B64" s="101" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C64" s="101" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D64" s="101">
+        <v>2</v>
+      </c>
+      <c r="E64" s="101" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F64" s="101" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G64" s="101" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H64" s="101" t="s">
+        <v>2192</v>
+      </c>
+      <c r="I64" s="101">
+        <v>3</v>
+      </c>
+      <c r="J64" s="101" t="s">
+        <v>2191</v>
+      </c>
+      <c r="K64" s="101" t="s">
         <v>1958</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="38">
-        <v>3</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C49" s="40">
-        <v>2</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>1899</v>
-      </c>
-      <c r="G49" s="40">
-        <v>3</v>
-      </c>
-      <c r="H49" s="40" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="101">
+        <v>3</v>
+      </c>
+      <c r="B65" s="101" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C65" s="101" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D65" s="101">
+        <v>2</v>
+      </c>
+      <c r="E65" s="101" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F65" s="101" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G65" s="101" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H65" s="101" t="s">
+        <v>2195</v>
+      </c>
+      <c r="I65" s="101">
+        <v>3</v>
+      </c>
+      <c r="J65" s="101" t="s">
+        <v>2194</v>
+      </c>
+      <c r="K65" s="101" t="s">
         <v>1959</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="38">
-        <v>3</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C50" s="40">
-        <v>1</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>1902</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>1901</v>
-      </c>
-      <c r="G50" s="40">
-        <v>2</v>
-      </c>
-      <c r="H50" s="40" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" s="101">
+        <v>3</v>
+      </c>
+      <c r="B66" s="101" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C66" s="101" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D66" s="101">
+        <v>1</v>
+      </c>
+      <c r="E66" s="101" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F66" s="101" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G66" s="101" t="s">
+        <v>2196</v>
+      </c>
+      <c r="H66" s="101" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I66" s="101">
+        <v>2</v>
+      </c>
+      <c r="J66" s="101" t="s">
+        <v>2198</v>
+      </c>
+      <c r="K66" s="101" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="101">
+        <v>3</v>
+      </c>
+      <c r="B67" s="101" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C67" s="101" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D67" s="101">
+        <v>1</v>
+      </c>
+      <c r="E67" s="101" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F67" s="101" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G67" s="101" t="s">
+        <v>2202</v>
+      </c>
+      <c r="H67" s="101" t="s">
+        <v>2206</v>
+      </c>
+      <c r="I67" s="101">
+        <v>2</v>
+      </c>
+      <c r="J67" s="101" t="s">
+        <v>2204</v>
+      </c>
+      <c r="K67" s="101" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="101">
+        <v>3</v>
+      </c>
+      <c r="B68" s="101" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C68" s="101" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D68" s="101">
+        <v>1</v>
+      </c>
+      <c r="E68" s="101" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F68" s="101" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G68" s="101" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H68" s="101" t="s">
+        <v>2212</v>
+      </c>
+      <c r="I68" s="101">
+        <v>2</v>
+      </c>
+      <c r="J68" s="101" t="s">
+        <v>2210</v>
+      </c>
+      <c r="K68" s="101" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="101">
+        <v>3</v>
+      </c>
+      <c r="B69" s="101" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C69" s="101" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D69" s="101">
+        <v>1</v>
+      </c>
+      <c r="E69" s="101" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F69" s="101" t="s">
+        <v>2217</v>
+      </c>
+      <c r="G69" s="101" t="s">
+        <v>2214</v>
+      </c>
+      <c r="H69" s="101" t="s">
+        <v>2218</v>
+      </c>
+      <c r="I69" s="101">
+        <v>2</v>
+      </c>
+      <c r="J69" s="101" t="s">
+        <v>2216</v>
+      </c>
+      <c r="K69" s="101" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="101">
+        <v>3</v>
+      </c>
+      <c r="B70" s="101" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C70" s="101" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D70" s="101">
+        <v>1</v>
+      </c>
+      <c r="E70" s="101" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F70" s="101" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G70" s="101" t="s">
+        <v>2220</v>
+      </c>
+      <c r="H70" s="101" t="s">
+        <v>2224</v>
+      </c>
+      <c r="I70" s="101">
+        <v>3</v>
+      </c>
+      <c r="J70" s="101" t="s">
+        <v>2222</v>
+      </c>
+      <c r="K70" s="101" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="101">
+        <v>3</v>
+      </c>
+      <c r="B71" s="101" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C71" s="101" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D71" s="101">
+        <v>1</v>
+      </c>
+      <c r="E71" s="101" t="s">
+        <v>2228</v>
+      </c>
+      <c r="F71" s="101" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G71" s="101" t="s">
+        <v>2226</v>
+      </c>
+      <c r="H71" s="101" t="s">
+        <v>2230</v>
+      </c>
+      <c r="I71" s="101">
+        <v>3</v>
+      </c>
+      <c r="J71" s="101" t="s">
+        <v>2228</v>
+      </c>
+      <c r="K71" s="101" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="101">
+        <v>3</v>
+      </c>
+      <c r="B72" s="101" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C72" s="101" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D72" s="101">
+        <v>2</v>
+      </c>
+      <c r="E72" s="101" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F72" s="101" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G72" s="101" t="s">
+        <v>2232</v>
+      </c>
+      <c r="H72" s="101" t="s">
+        <v>2233</v>
+      </c>
+      <c r="I72" s="101">
+        <v>3</v>
+      </c>
+      <c r="J72" s="101" t="s">
+        <v>2234</v>
+      </c>
+      <c r="K72" s="101" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="101">
+        <v>3</v>
+      </c>
+      <c r="B73" s="101" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C73" s="101" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D73" s="101">
+        <v>1</v>
+      </c>
+      <c r="E73" s="101" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F73" s="101" t="s">
+        <v>2240</v>
+      </c>
+      <c r="G73" s="101" t="s">
+        <v>2237</v>
+      </c>
+      <c r="H73" s="101" t="s">
+        <v>2241</v>
+      </c>
+      <c r="I73" s="101">
+        <v>2</v>
+      </c>
+      <c r="J73" s="101" t="s">
+        <v>2239</v>
+      </c>
+      <c r="K73" s="101" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="101">
+        <v>3</v>
+      </c>
+      <c r="B74" s="101" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C74" s="101" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D74" s="101">
+        <v>2</v>
+      </c>
+      <c r="E74" s="101" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F74" s="101" t="s">
+        <v>2246</v>
+      </c>
+      <c r="G74" s="101" t="s">
+        <v>2243</v>
+      </c>
+      <c r="H74" s="101" t="s">
+        <v>2247</v>
+      </c>
+      <c r="I74" s="101">
+        <v>3</v>
+      </c>
+      <c r="J74" s="101" t="s">
+        <v>2245</v>
+      </c>
+      <c r="K74" s="101" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="101">
+        <v>3</v>
+      </c>
+      <c r="B75" s="101" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C75" s="101" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D75" s="101">
+        <v>1</v>
+      </c>
+      <c r="E75" s="101" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F75" s="101" t="s">
+        <v>2249</v>
+      </c>
+      <c r="G75" s="101" t="s">
+        <v>2249</v>
+      </c>
+      <c r="H75" s="101" t="s">
+        <v>2252</v>
+      </c>
+      <c r="I75" s="101">
+        <v>3</v>
+      </c>
+      <c r="J75" s="101" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K75" s="101" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="101">
+        <v>3</v>
+      </c>
+      <c r="B76" s="101" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C76" s="101" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D76" s="101">
+        <v>1</v>
+      </c>
+      <c r="E76" s="101" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F76" s="101" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G76" s="101" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H76" s="101" t="s">
+        <v>2258</v>
+      </c>
+      <c r="I76" s="101">
+        <v>3</v>
+      </c>
+      <c r="J76" s="101" t="s">
+        <v>2256</v>
+      </c>
+      <c r="K76" s="101" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="101">
+        <v>3</v>
+      </c>
+      <c r="B77" s="101" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C77" s="101" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D77" s="101">
+        <v>2</v>
+      </c>
+      <c r="E77" s="101" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F77" s="101" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G77" s="101" t="s">
+        <v>2260</v>
+      </c>
+      <c r="H77" s="101" t="s">
+        <v>2264</v>
+      </c>
+      <c r="I77" s="101">
+        <v>3</v>
+      </c>
+      <c r="J77" s="101" t="s">
+        <v>2262</v>
+      </c>
+      <c r="K77" s="101" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="101">
+        <v>3</v>
+      </c>
+      <c r="B78" s="101" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C78" s="101" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D78" s="101">
+        <v>1</v>
+      </c>
+      <c r="E78" s="101" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F78" s="101" t="s">
+        <v>2269</v>
+      </c>
+      <c r="G78" s="101" t="s">
+        <v>2266</v>
+      </c>
+      <c r="H78" s="101" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I78" s="101">
+        <v>2</v>
+      </c>
+      <c r="J78" s="101" t="s">
+        <v>2268</v>
+      </c>
+      <c r="K78" s="101" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" s="101">
+        <v>3</v>
+      </c>
+      <c r="B79" s="101" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C79" s="101" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D79" s="101">
+        <v>2</v>
+      </c>
+      <c r="E79" s="101" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F79" s="101" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G79" s="101" t="s">
+        <v>2272</v>
+      </c>
+      <c r="H79" s="101" t="s">
+        <v>2276</v>
+      </c>
+      <c r="I79" s="101">
+        <v>3</v>
+      </c>
+      <c r="J79" s="101" t="s">
+        <v>2274</v>
+      </c>
+      <c r="K79" s="101" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="101">
+        <v>3</v>
+      </c>
+      <c r="B80" s="101" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C80" s="101" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D80" s="101">
+        <v>1</v>
+      </c>
+      <c r="E80" s="101" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F80" s="101" t="s">
+        <v>2281</v>
+      </c>
+      <c r="G80" s="101" t="s">
+        <v>2278</v>
+      </c>
+      <c r="H80" s="101" t="s">
+        <v>2282</v>
+      </c>
+      <c r="I80" s="101">
+        <v>3</v>
+      </c>
+      <c r="J80" s="101" t="s">
+        <v>2280</v>
+      </c>
+      <c r="K80" s="101" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="101">
+        <v>3</v>
+      </c>
+      <c r="B81" s="101" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C81" s="101" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D81" s="101">
+        <v>1</v>
+      </c>
+      <c r="E81" s="101" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F81" s="101" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G81" s="101" t="s">
+        <v>2284</v>
+      </c>
+      <c r="H81" s="101" t="s">
+        <v>2288</v>
+      </c>
+      <c r="I81" s="101">
+        <v>3</v>
+      </c>
+      <c r="J81" s="101" t="s">
+        <v>2286</v>
+      </c>
+      <c r="K81" s="101" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="101">
+        <v>3</v>
+      </c>
+      <c r="B82" s="101" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C82" s="101" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D82" s="101">
+        <v>1</v>
+      </c>
+      <c r="E82" s="101" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F82" s="101" t="s">
+        <v>2293</v>
+      </c>
+      <c r="G82" s="101" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H82" s="101" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I82" s="101">
+        <v>2</v>
+      </c>
+      <c r="J82" s="101" t="s">
+        <v>2292</v>
+      </c>
+      <c r="K82" s="101" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="101">
+        <v>3</v>
+      </c>
+      <c r="B83" s="101" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C83" s="101" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D83" s="101">
+        <v>1</v>
+      </c>
+      <c r="E83" s="101" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F83" s="101" t="s">
+        <v>2299</v>
+      </c>
+      <c r="G83" s="101" t="s">
+        <v>2296</v>
+      </c>
+      <c r="H83" s="101" t="s">
+        <v>2300</v>
+      </c>
+      <c r="I83" s="101">
+        <v>3</v>
+      </c>
+      <c r="J83" s="101" t="s">
+        <v>2298</v>
+      </c>
+      <c r="K83" s="101" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="102">
+        <v>4</v>
+      </c>
+      <c r="B84" s="102" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C84" s="102" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D84" s="102">
+        <v>2</v>
+      </c>
+      <c r="E84" s="102" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F84" s="102" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G84" s="102" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H84" s="102" t="s">
+        <v>2304</v>
+      </c>
+      <c r="I84" s="102">
+        <v>3</v>
+      </c>
+      <c r="J84" s="102" t="s">
+        <v>2303</v>
+      </c>
+      <c r="K84" s="102" t="s">
         <v>1960</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="38">
-        <v>3</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C51" s="40">
-        <v>1</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>1903</v>
-      </c>
-      <c r="G51" s="40">
-        <v>3</v>
-      </c>
-      <c r="H51" s="40" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="102">
+        <v>4</v>
+      </c>
+      <c r="B85" s="102" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C85" s="102" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D85" s="102">
+        <v>2</v>
+      </c>
+      <c r="E85" s="102" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F85" s="102" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G85" s="102" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H85" s="102" t="s">
+        <v>2307</v>
+      </c>
+      <c r="I85" s="102">
+        <v>4</v>
+      </c>
+      <c r="J85" s="102" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K85" s="102" t="s">
         <v>1961</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="38">
-        <v>3</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>1905</v>
-      </c>
-      <c r="C52" s="40">
-        <v>2</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>1906</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>1905</v>
-      </c>
-      <c r="G52" s="40">
-        <v>3</v>
-      </c>
-      <c r="H52" s="40" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="102">
+        <v>4</v>
+      </c>
+      <c r="B86" s="102" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C86" s="102" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D86" s="102">
+        <v>2</v>
+      </c>
+      <c r="E86" s="102" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F86" s="102" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G86" s="102" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H86" s="102" t="s">
+        <v>2308</v>
+      </c>
+      <c r="I86" s="102">
+        <v>3</v>
+      </c>
+      <c r="J86" s="102" t="s">
+        <v>2309</v>
+      </c>
+      <c r="K86" s="102" t="s">
         <v>1962</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="38">
-        <v>3</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>1907</v>
-      </c>
-      <c r="C53" s="40">
-        <v>2</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>1907</v>
-      </c>
-      <c r="G53" s="40">
-        <v>3</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="42">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="102">
         <v>4</v>
       </c>
-      <c r="B54" s="43" t="s">
-        <v>1909</v>
-      </c>
-      <c r="C54" s="44">
-        <v>2</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>1910</v>
-      </c>
-      <c r="E54" s="45" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>1909</v>
-      </c>
-      <c r="G54" s="44">
-        <v>3</v>
-      </c>
-      <c r="H54" s="44" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="42">
-        <v>4</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C55" s="44">
-        <v>2</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>1912</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G55" s="44">
-        <v>4</v>
-      </c>
-      <c r="H55" s="44" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="42">
-        <v>4</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>1913</v>
-      </c>
-      <c r="C56" s="44">
-        <v>2</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>1914</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>1913</v>
-      </c>
-      <c r="G56" s="44">
-        <v>3</v>
-      </c>
-      <c r="H56" s="44" t="s">
-        <v>1966</v>
-      </c>
+      <c r="B87" s="102" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C87" s="102" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D87" s="102">
+        <v>2</v>
+      </c>
+      <c r="E87" s="102" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F87" s="102" t="s">
+        <v>2313</v>
+      </c>
+      <c r="G87" s="102" t="s">
+        <v>2310</v>
+      </c>
+      <c r="H87" s="102" t="s">
+        <v>2311</v>
+      </c>
+      <c r="I87" s="102">
+        <v>3</v>
+      </c>
+      <c r="J87" s="102" t="s">
+        <v>2312</v>
+      </c>
+      <c r="K87" s="102" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="97"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="97"/>
+      <c r="F88" s="97"/>
+      <c r="G88" s="97"/>
+      <c r="H88" s="97"/>
+      <c r="I88" s="97"/>
+      <c r="J88" s="97"/>
+      <c r="K88" s="97"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="97"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="97"/>
+      <c r="D89" s="97"/>
+      <c r="E89" s="97"/>
+      <c r="F89" s="97"/>
+      <c r="G89" s="97"/>
+      <c r="H89" s="97"/>
+      <c r="I89" s="97"/>
+      <c r="J89" s="97"/>
+      <c r="K89" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21779,7 +24468,7 @@
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="E2" s="21"/>
     </row>
